--- a/BPAPAC_0512.xlsx
+++ b/BPAPAC_0512.xlsx
@@ -5,20 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RnD Workstation\Documents\CostReview\0512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RnD Workstation\Documents\CostReview\Report-PGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F82EB-551C-482E-943C-462A8B58B951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA454174-6939-4F5C-8BC4-07B71D7D30FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D5612B-8EC2-4907-8A8E-D000CDB3C9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="FL_BPA" sheetId="1" r:id="rId1"/>
-    <sheet name="TL_BPA" sheetId="2" r:id="rId2"/>
-    <sheet name="DR_BPA" sheetId="3" r:id="rId3"/>
-    <sheet name="FL_PAC" sheetId="4" r:id="rId4"/>
-    <sheet name="TL_PAC" sheetId="5" r:id="rId5"/>
-    <sheet name="DR_PAC" sheetId="6" r:id="rId6"/>
+    <sheet name="FL_BPA_I" sheetId="8" r:id="rId2"/>
+    <sheet name="TL_BPA" sheetId="2" r:id="rId3"/>
+    <sheet name="TL_BPA_I" sheetId="9" r:id="rId4"/>
+    <sheet name="DR_BPA" sheetId="3" r:id="rId5"/>
+    <sheet name="DR_BPA_I" sheetId="10" r:id="rId6"/>
+    <sheet name="FL_PAC" sheetId="4" r:id="rId7"/>
+    <sheet name="FL_PAC_I" sheetId="11" r:id="rId8"/>
+    <sheet name="TL_PAC" sheetId="5" r:id="rId9"/>
+    <sheet name="TL_PAC_I" sheetId="12" r:id="rId10"/>
+    <sheet name="DR_PAC" sheetId="6" r:id="rId11"/>
+    <sheet name="DR_PAC_I" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
   <si>
     <t>Tool</t>
   </si>
@@ -195,13 +201,103 @@
   </si>
   <si>
     <t>Victor2 Refresh Better_K</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Resin,PP</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>Door,Glass</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>Accessory Assembly</t>
+  </si>
+  <si>
+    <t>Damper Assembly,Friction</t>
+  </si>
+  <si>
+    <t>Lid Assembly</t>
+  </si>
+  <si>
+    <t>Resin,ASA(Chg_Qty)</t>
+  </si>
+  <si>
+    <t>Bracket Assembly</t>
+  </si>
+  <si>
+    <t>Door Assembly,Sub</t>
+  </si>
+  <si>
+    <t>Gasket</t>
+  </si>
+  <si>
+    <t>Resin,EPS</t>
+  </si>
+  <si>
+    <t>Stator Assembly,Combined</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>Rotor Assembly,Combined</t>
+  </si>
+  <si>
+    <t>Tub,Drum(Front)(Rear)</t>
+  </si>
+  <si>
+    <t>Bearing,Ball</t>
+  </si>
+  <si>
+    <t>Sheet,Steel(PCM)</t>
+  </si>
+  <si>
+    <t>Housing Assembly,Clutch Coupling</t>
+  </si>
+  <si>
+    <t>Bracket,Hinge</t>
+  </si>
+  <si>
+    <t>Generator Assembly</t>
+  </si>
+  <si>
+    <t>Parts Assembly,Motor</t>
+  </si>
+  <si>
+    <t>Heater Assembly</t>
+  </si>
+  <si>
+    <t>Sheet,Steel(Alcot)</t>
+  </si>
+  <si>
+    <t>Belt,Poly V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +323,26 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="6">
@@ -261,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -297,11 +413,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -350,6 +475,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +814,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="R1" sqref="R1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,12 +1155,764 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90215C98-B00F-42A4-B698-2444D01E9DED}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-0.83399999999999996</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-2.38</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-1.44</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="19">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="19">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D4C193-1AD1-4892-9559-3DA2B2CB11F5}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="20" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>22.07</v>
+      </c>
+      <c r="D1" s="2">
+        <v>22.08</v>
+      </c>
+      <c r="E1" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>22.11</v>
+      </c>
+      <c r="H1" s="1">
+        <v>22.12</v>
+      </c>
+      <c r="I1" s="1">
+        <v>23.01</v>
+      </c>
+      <c r="J1" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="K1" s="1">
+        <v>23.03</v>
+      </c>
+      <c r="L1" s="1">
+        <v>23.04</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>234.1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>236.1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>237.3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>232.2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>228.4</v>
+      </c>
+      <c r="H2" s="9">
+        <v>221</v>
+      </c>
+      <c r="I2" s="9">
+        <v>219.9</v>
+      </c>
+      <c r="J2" s="9">
+        <v>219</v>
+      </c>
+      <c r="K2" s="9">
+        <v>217</v>
+      </c>
+      <c r="L2" s="9">
+        <v>211.1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>211.1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>208.6</v>
+      </c>
+      <c r="O2" s="9">
+        <v>208.1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>207.6</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>241.8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>242.6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>242.8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>238.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>235.3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>227</v>
+      </c>
+      <c r="I3" s="6">
+        <v>225.7</v>
+      </c>
+      <c r="J3" s="6">
+        <v>222.6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>222.9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>217.7</v>
+      </c>
+      <c r="M3" s="6">
+        <v>217.7</v>
+      </c>
+      <c r="N3" s="6">
+        <v>215</v>
+      </c>
+      <c r="O3" s="6">
+        <v>214.5</v>
+      </c>
+      <c r="P3" s="6">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>259</v>
+      </c>
+      <c r="D4" s="6">
+        <v>259.2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>269.7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>253</v>
+      </c>
+      <c r="H4" s="6">
+        <v>238</v>
+      </c>
+      <c r="I4" s="6">
+        <v>237.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>234</v>
+      </c>
+      <c r="K4" s="6">
+        <v>234.8</v>
+      </c>
+      <c r="L4" s="6">
+        <v>230.3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>230.3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>227.7</v>
+      </c>
+      <c r="O4" s="6">
+        <v>227.2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>226.7</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6">
+        <v>271.7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>272.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>248.9</v>
+      </c>
+      <c r="I5" s="6">
+        <v>247.3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>244.4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>246.7</v>
+      </c>
+      <c r="L5" s="6">
+        <v>240.2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>240.1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>236.3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>235.8</v>
+      </c>
+      <c r="P5" s="6">
+        <v>235.3</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>234.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>282</v>
+      </c>
+      <c r="E6" s="6">
+        <v>283</v>
+      </c>
+      <c r="F6" s="6">
+        <v>280.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="H6" s="6">
+        <v>259</v>
+      </c>
+      <c r="I6" s="6">
+        <v>258.5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>255.9</v>
+      </c>
+      <c r="K6" s="6">
+        <v>259.5</v>
+      </c>
+      <c r="L6" s="6">
+        <v>254.1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>254.1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>249.2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>248.7</v>
+      </c>
+      <c r="P6" s="6">
+        <v>248.2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>247.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>274.2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>271.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>266.3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>257.8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="J7" s="6">
+        <v>253.2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>254.3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>248.8</v>
+      </c>
+      <c r="M7" s="6">
+        <v>248.7</v>
+      </c>
+      <c r="N7" s="6">
+        <v>245.8</v>
+      </c>
+      <c r="O7" s="6">
+        <v>245.3</v>
+      </c>
+      <c r="P7" s="6">
+        <v>244.8</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>244.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
+        <v>284.3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>284.3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>285.7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>282.8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>278.3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>268.3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>267.5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>264.8</v>
+      </c>
+      <c r="K8" s="9">
+        <v>267</v>
+      </c>
+      <c r="L8" s="9">
+        <v>262.2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="N8" s="9">
+        <v>259.2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>258.7</v>
+      </c>
+      <c r="P8" s="9">
+        <v>258.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>257.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E507AD-A140-4A2A-B2D7-93BFC74B4334}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-1.24</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="19">
+        <v>-0.61</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="19">
+        <v>-1.99</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="19">
+        <v>-0.35</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1628BF13-AEEF-4106-BB2A-ECFCE00A8EEF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0F392E-1966-4EFA-96F4-16BF2CFDA487}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R1" sqref="R1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,12 +2293,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3AA3D-44D0-4FDB-B20D-8F41E89CA0D9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-0.09</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628D66BE-CB35-4951-8011-25BBCAEA4EEA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R1" sqref="R1:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,12 +2809,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE786844-9474-43A3-9F7B-09729B9CF53A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-6.7799999999999999E-2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-0.156</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AD8A32-62C5-4CCE-9B8C-7F601924E632}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R1" sqref="R1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,12 +3219,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923BF2BA-488E-41D0-AB36-F9004CA63385}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-2.79</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-1.91</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-0.49</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="19">
+        <v>-1.29</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="19">
+        <v>-0.44</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="19">
+        <v>-0.16</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="D9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4DCC9F-D3E1-41A6-9B28-CA536E9A40A6}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="R1" sqref="R1:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,443 +3735,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D4C193-1AD1-4892-9559-3DA2B2CB11F5}">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>22.07</v>
-      </c>
-      <c r="D1" s="2">
-        <v>22.08</v>
-      </c>
-      <c r="E1" s="1">
-        <v>22.09</v>
-      </c>
-      <c r="F1" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>22.11</v>
-      </c>
-      <c r="H1" s="1">
-        <v>22.12</v>
-      </c>
-      <c r="I1" s="1">
-        <v>23.01</v>
-      </c>
-      <c r="J1" s="1">
-        <v>23.02</v>
-      </c>
-      <c r="K1" s="1">
-        <v>23.03</v>
-      </c>
-      <c r="L1" s="1">
-        <v>23.04</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9">
-        <v>234.1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>236.1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>237.3</v>
-      </c>
-      <c r="F2" s="9">
-        <v>232.2</v>
-      </c>
-      <c r="G2" s="9">
-        <v>228.4</v>
-      </c>
-      <c r="H2" s="9">
-        <v>221</v>
-      </c>
-      <c r="I2" s="9">
-        <v>219.9</v>
-      </c>
-      <c r="J2" s="9">
-        <v>219</v>
-      </c>
-      <c r="K2" s="9">
-        <v>217</v>
-      </c>
-      <c r="L2" s="9">
-        <v>211.1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>211.1</v>
-      </c>
-      <c r="N2" s="9">
-        <v>208.6</v>
-      </c>
-      <c r="O2" s="9">
-        <v>208.1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>207.6</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>207.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>241.8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>242.6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>242.8</v>
-      </c>
-      <c r="F3" s="6">
-        <v>238.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>235.3</v>
-      </c>
-      <c r="H3" s="6">
-        <v>227</v>
-      </c>
-      <c r="I3" s="6">
-        <v>225.7</v>
-      </c>
-      <c r="J3" s="6">
-        <v>222.6</v>
-      </c>
-      <c r="K3" s="6">
-        <v>222.9</v>
-      </c>
-      <c r="L3" s="6">
-        <v>217.7</v>
-      </c>
-      <c r="M3" s="6">
-        <v>217.7</v>
-      </c>
-      <c r="N3" s="6">
-        <v>215</v>
-      </c>
-      <c r="O3" s="6">
-        <v>214.5</v>
-      </c>
-      <c r="P3" s="6">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>213.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>259</v>
-      </c>
-      <c r="D4" s="6">
-        <v>259.2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>260.39999999999998</v>
-      </c>
-      <c r="F4" s="6">
-        <v>269.7</v>
-      </c>
-      <c r="G4" s="6">
-        <v>253</v>
-      </c>
-      <c r="H4" s="6">
-        <v>238</v>
-      </c>
-      <c r="I4" s="6">
-        <v>237.5</v>
-      </c>
-      <c r="J4" s="6">
-        <v>234</v>
-      </c>
-      <c r="K4" s="6">
-        <v>234.8</v>
-      </c>
-      <c r="L4" s="6">
-        <v>230.3</v>
-      </c>
-      <c r="M4" s="6">
-        <v>230.3</v>
-      </c>
-      <c r="N4" s="6">
-        <v>227.7</v>
-      </c>
-      <c r="O4" s="6">
-        <v>227.2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>226.7</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>226.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6">
-        <v>271.7</v>
-      </c>
-      <c r="D5" s="6">
-        <v>272.5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <v>256.39999999999998</v>
-      </c>
-      <c r="G5" s="6">
-        <v>257.60000000000002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>248.9</v>
-      </c>
-      <c r="I5" s="6">
-        <v>247.3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>244.4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>246.7</v>
-      </c>
-      <c r="L5" s="6">
-        <v>240.2</v>
-      </c>
-      <c r="M5" s="6">
-        <v>240.1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>236.3</v>
-      </c>
-      <c r="O5" s="6">
-        <v>235.8</v>
-      </c>
-      <c r="P5" s="6">
-        <v>235.3</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>234.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6">
-        <v>282.10000000000002</v>
-      </c>
-      <c r="D6" s="6">
-        <v>282</v>
-      </c>
-      <c r="E6" s="6">
-        <v>283</v>
-      </c>
-      <c r="F6" s="6">
-        <v>280.5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>268.60000000000002</v>
-      </c>
-      <c r="H6" s="6">
-        <v>259</v>
-      </c>
-      <c r="I6" s="6">
-        <v>258.5</v>
-      </c>
-      <c r="J6" s="6">
-        <v>255.9</v>
-      </c>
-      <c r="K6" s="6">
-        <v>259.5</v>
-      </c>
-      <c r="L6" s="6">
-        <v>254.1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>254.1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>249.2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>248.7</v>
-      </c>
-      <c r="P6" s="6">
-        <v>248.2</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>247.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6">
-        <v>273.39999999999998</v>
-      </c>
-      <c r="D7" s="6">
-        <v>274.2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>274.60000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <v>271.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>266.3</v>
-      </c>
-      <c r="H7" s="6">
-        <v>257.8</v>
-      </c>
-      <c r="I7" s="6">
-        <v>256.10000000000002</v>
-      </c>
-      <c r="J7" s="6">
-        <v>253.2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>254.3</v>
-      </c>
-      <c r="L7" s="6">
-        <v>248.8</v>
-      </c>
-      <c r="M7" s="6">
-        <v>248.7</v>
-      </c>
-      <c r="N7" s="6">
-        <v>245.8</v>
-      </c>
-      <c r="O7" s="6">
-        <v>245.3</v>
-      </c>
-      <c r="P7" s="6">
-        <v>244.8</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>244.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9">
-        <v>284.3</v>
-      </c>
-      <c r="D8" s="9">
-        <v>284.3</v>
-      </c>
-      <c r="E8" s="9">
-        <v>285.7</v>
-      </c>
-      <c r="F8" s="9">
-        <v>282.8</v>
-      </c>
-      <c r="G8" s="9">
-        <v>278.3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>268.3</v>
-      </c>
-      <c r="I8" s="9">
-        <v>267.5</v>
-      </c>
-      <c r="J8" s="9">
-        <v>264.8</v>
-      </c>
-      <c r="K8" s="9">
-        <v>267</v>
-      </c>
-      <c r="L8" s="9">
-        <v>262.2</v>
-      </c>
-      <c r="M8" s="9">
-        <v>262.10000000000002</v>
-      </c>
-      <c r="N8" s="9">
-        <v>259.2</v>
-      </c>
-      <c r="O8" s="9">
-        <v>258.7</v>
-      </c>
-      <c r="P8" s="9">
-        <v>258.2</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>257.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BPAPAC_0512.xlsx
+++ b/BPAPAC_0512.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RnD Workstation\Documents\CostReview\Report-PGM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RnD Workstation\Documents\CostReview\0512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA454174-6939-4F5C-8BC4-07B71D7D30FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF198A-DB3C-45DA-92A7-7051E5A449D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D5612B-8EC2-4907-8A8E-D000CDB3C9DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{80D5612B-8EC2-4907-8A8E-D000CDB3C9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="FL_BPA" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>Tool</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Belt,Poly V</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>blank</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B0301-94EE-4425-8345-CA8AEE01FDD6}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:W1048576"/>
     </sheetView>
   </sheetViews>
@@ -3221,128 +3227,162 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923BF2BA-488E-41D0-AB36-F9004CA63385}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="19">
+      <c r="D2" s="19">
         <v>0.02</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="19">
+      <c r="H2" s="19">
         <v>-2.79</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="19">
+      <c r="H3" s="19">
         <v>-1.91</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="19">
+      <c r="H4" s="19">
         <v>-0.49</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="19">
+      <c r="H5" s="19">
         <v>-1.29</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="19">
+      <c r="H6" s="19">
         <v>-0.44</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19">
+      <c r="H7" s="19">
         <v>-0.16</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="19">
+      <c r="H8" s="19">
         <v>-0.03</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="19">
+      <c r="H9" s="19">
         <v>-0.01</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>58</v>
       </c>
     </row>
